--- a/DATA_goal/Junction_Flooding_403.xlsx
+++ b/DATA_goal/Junction_Flooding_403.xlsx
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -759,103 +759,103 @@
         <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T3" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="U3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q4" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="R4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.28</v>
+        <v>22.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.59</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.65</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.9</v>
+        <v>118.98</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.57</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.58</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_403.xlsx
+++ b/DATA_goal/Junction_Flooding_403.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.88194444445</v>
+        <v>45084.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.88888888889</v>
+        <v>45084.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.78</v>
+        <v>18.888</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>14.094</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.716</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.58</v>
+        <v>41.961</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.33</v>
+        <v>33.589</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.01</v>
+        <v>14.968</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.27</v>
+        <v>50.407</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.83</v>
+        <v>22.863</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.54</v>
+        <v>10.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.48</v>
+        <v>15.649</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>17.139</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.19</v>
+        <v>17.456</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.08</v>
+        <v>4.822</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.57</v>
+        <v>14.776</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.83</v>
+        <v>22.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.24</v>
+        <v>12.033</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.176</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.354</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.56</v>
+        <v>221.15</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.43</v>
+        <v>41.832</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.48</v>
+        <v>14.228</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.34</v>
+        <v>28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.43</v>
+        <v>15.2</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>2.702</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.61</v>
+        <v>26.37</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.51</v>
+        <v>12.209</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.72</v>
+        <v>10.614</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.74</v>
+        <v>12.906</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.8</v>
+        <v>17.582</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.04</v>
+        <v>45.952</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.36</v>
+        <v>7.592</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.86</v>
+        <v>17.701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.89583333334</v>
+        <v>45084.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.34</v>
+        <v>13.712</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.24</v>
+        <v>10.241</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.537</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.72</v>
+        <v>30.378</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.27</v>
+        <v>24.412</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>10.891</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.28</v>
+        <v>43.637</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.35</v>
+        <v>16.617</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.41</v>
+        <v>7.512</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.15</v>
+        <v>11.349</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.22</v>
+        <v>12.436</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.32</v>
+        <v>12.671</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>3.501</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.24</v>
+        <v>10.715</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.47</v>
+        <v>16.108</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.03</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.132</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.239</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>158.386</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.72</v>
+        <v>30.526</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.2</v>
+        <v>10.291</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.9</v>
+        <v>20.456</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.21</v>
+        <v>11.038</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.6</v>
+        <v>21.517</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.26</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.42</v>
+        <v>7.698</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.4</v>
+        <v>9.361000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.99</v>
+        <v>12.766</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.18</v>
+        <v>40.082</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.19</v>
+        <v>5.521</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.44</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>45084.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.45</v>
+        <v>23.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.84</v>
+        <v>17.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.75</v>
+        <v>51.25</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.59</v>
+        <v>41.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.52</v>
+        <v>18.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.18</v>
+        <v>70.53</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.63</v>
+        <v>28.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.84</v>
+        <v>12.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>19.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.06</v>
+        <v>20.77</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>21.59</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.65</v>
+        <v>5.92</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.16</v>
+        <v>18.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.71</v>
+        <v>26.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.61</v>
+        <v>15.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.98</v>
+        <v>272.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.57</v>
+        <v>51.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.52</v>
+        <v>17.17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.58</v>
+        <v>34.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>18.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.1</v>
+        <v>2.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.98</v>
+        <v>34.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.72</v>
+        <v>15.01</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.04</v>
+        <v>13.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.04</v>
+        <v>15.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.09</v>
+        <v>21.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.38</v>
+        <v>64.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.35</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
+        <v>21.43</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_403.xlsx
+++ b/DATA_goal/Junction_Flooding_403.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45084.50694444445</v>
+        <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.735</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.827</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.423</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.979</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.643</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.329</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.443</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.279</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.076</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.072</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.872</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.514</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.386</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.712</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.121</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.552</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.645</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.823</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.314</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.721</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.589</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.435</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.091</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.771</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45084.51388888889</v>
+        <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.888</v>
+        <v>0.778</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.094</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.716</v>
+        <v>0.427</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.961</v>
+        <v>1.578</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.589</v>
+        <v>1.333</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.968</v>
+        <v>1.012</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.407</v>
+        <v>1.268</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.863</v>
+        <v>0.829</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.29</v>
+        <v>0.538</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.649</v>
+        <v>0.484</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.139</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.456</v>
+        <v>1.193</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.822</v>
+        <v>1.078</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.776</v>
+        <v>0.571</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.27</v>
+        <v>0.835</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.033</v>
+        <v>0.236</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.176</v>
+        <v>0.276</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.354</v>
+        <v>0.275</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.15</v>
+        <v>3.564</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.832</v>
+        <v>1.429</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.228</v>
+        <v>0.482</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28</v>
+        <v>1.339</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.2</v>
+        <v>0.431</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.702</v>
+        <v>0.144</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.37</v>
+        <v>0.607</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.209</v>
+        <v>0.511</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.614</v>
+        <v>0.719</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.906</v>
+        <v>0.736</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.582</v>
+        <v>1.799</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>45.952</v>
+        <v>1.036</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.592</v>
+        <v>0.365</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.701</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45084.52083333334</v>
+        <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.712</v>
+        <v>0.336</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.241</v>
+        <v>0.239</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.537</v>
+        <v>0.266</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.378</v>
+        <v>0.722</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.412</v>
+        <v>0.265</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.891</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.637</v>
+        <v>1.275</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.617</v>
+        <v>0.354</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.512</v>
+        <v>0.407</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.349</v>
+        <v>0.148</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.436</v>
+        <v>0.218</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.671</v>
+        <v>0.324</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.501</v>
+        <v>0.15</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.715</v>
+        <v>0.237</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.108</v>
+        <v>0.474</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.132</v>
+        <v>0.223</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.239</v>
+        <v>0.188</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.386</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.526</v>
+        <v>0.725</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.291</v>
+        <v>0.197</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.456</v>
+        <v>0.904</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.038</v>
+        <v>0.208</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.9</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.517</v>
+        <v>0.602</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.867000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.698</v>
+        <v>0.423</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.361000000000001</v>
+        <v>0.404</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.766</v>
+        <v>0.989</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.505</v>
+        <v>0.706</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.082</v>
+        <v>1.183</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.521</v>
+        <v>0.186</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.81</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45084.52777777778</v>
+        <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.38</v>
+        <v>10.451</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.52</v>
+        <v>7.841</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.536</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.25</v>
+        <v>22.752</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.86</v>
+        <v>18.588</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.48</v>
+        <v>8.525</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.53</v>
+        <v>25.184</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.32</v>
+        <v>12.627</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.76</v>
+        <v>5.835</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.15</v>
+        <v>8.388999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.77</v>
+        <v>9.063000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.59</v>
+        <v>9.794</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.92</v>
+        <v>2.654</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.28</v>
+        <v>8.157</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.72</v>
+        <v>11.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.01</v>
+        <v>6.613</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>118.983</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>22.566</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>7.517</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>15.577</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>8.038</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>12.984</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>10.089</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>22.381</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.348</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>9.544</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.90971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>272.91</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>51.48</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>34.72</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>21.43</v>
+      <c r="S6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>61.63</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_403.xlsx
+++ b/DATA_goal/Junction_Flooding_403.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.88194444445</v>
+        <v>45084.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.88888888889</v>
+        <v>45084.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.778</v>
+        <v>18.888</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.5590000000000001</v>
+        <v>14.094</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.427</v>
+        <v>0.716</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.578</v>
+        <v>41.961</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.333</v>
+        <v>33.589</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.012</v>
+        <v>14.968</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.268</v>
+        <v>50.407</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.829</v>
+        <v>22.863</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.538</v>
+        <v>10.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.484</v>
+        <v>15.649</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.5580000000000001</v>
+        <v>17.139</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.193</v>
+        <v>17.456</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.078</v>
+        <v>4.822</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.571</v>
+        <v>14.776</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.835</v>
+        <v>22.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.236</v>
+        <v>12.033</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.276</v>
+        <v>0.176</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.275</v>
+        <v>0.354</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.564</v>
+        <v>221.15</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.429</v>
+        <v>41.832</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.482</v>
+        <v>14.228</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.339</v>
+        <v>28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.431</v>
+        <v>15.2</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.144</v>
+        <v>2.702</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.607</v>
+        <v>26.37</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.511</v>
+        <v>12.209</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.719</v>
+        <v>10.614</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.736</v>
+        <v>12.906</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.799</v>
+        <v>17.582</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.101</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.036</v>
+        <v>45.952</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.365</v>
+        <v>7.592</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.864</v>
+        <v>17.701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.89583333334</v>
+        <v>45084.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.336</v>
+        <v>13.712</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>10.241</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>30.378</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>24.412</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>10.891</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>43.637</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>16.617</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>7.512</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>11.349</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>12.436</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>12.671</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.501</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>10.715</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>16.108</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.239</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.275</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.188</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>158.386</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.725</v>
+        <v>30.526</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.197</v>
+        <v>10.291</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.904</v>
+        <v>20.456</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.208</v>
+        <v>11.038</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07099999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.602</v>
+        <v>21.517</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.263</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.423</v>
+        <v>7.698</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.404</v>
+        <v>9.361000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.989</v>
+        <v>12.766</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.706</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.183</v>
+        <v>40.082</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.186</v>
+        <v>5.521</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.439</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>45084.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.451</v>
+        <v>23.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.841</v>
+        <v>17.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.536</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.752</v>
+        <v>51.25</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.588</v>
+        <v>41.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.525</v>
+        <v>18.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.184</v>
+        <v>70.53</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.627</v>
+        <v>28.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.835</v>
+        <v>12.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.388999999999999</v>
+        <v>19.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.063000000000001</v>
+        <v>20.77</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.794</v>
+        <v>21.59</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.654</v>
+        <v>5.92</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.157</v>
+        <v>18.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.71</v>
+        <v>26.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.613</v>
+        <v>15.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.277</v>
+        <v>0.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.448</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.983</v>
+        <v>272.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.566</v>
+        <v>51.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.517</v>
+        <v>17.17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.577</v>
+        <v>34.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.038</v>
+        <v>18.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.097</v>
+        <v>2.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.984</v>
+        <v>34.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.719</v>
+        <v>15.01</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.037</v>
+        <v>13.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.04</v>
+        <v>15.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.089</v>
+        <v>21.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.519</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.381</v>
+        <v>64.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.348</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.544</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.63</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
+        <v>21.43</v>
       </c>
     </row>
   </sheetData>
